--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.2/avg_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.2/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="175">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,664 +43,499 @@
     <t>evil</t>
   </si>
   <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>dreadful</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>creepy</t>
+    <t>boring</t>
   </si>
   <si>
     <t>worse</t>
   </si>
   <si>
+    <t>stupid</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>scary</t>
   </si>
   <si>
     <t>insane</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>toxic</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>addicted</t>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>hate</t>
   </si>
   <si>
     <t>shocking</t>
   </si>
   <si>
-    <t>hate</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>seriously</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>ugly</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>scary</t>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>fucking</t>
   </si>
   <si>
     <t>sorry</t>
   </si>
   <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>slow</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>ruining</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>confused</t>
+    <t>bad</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>badly</t>
-  </si>
-  <si>
-    <t>unnecessary</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>behind</t>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>ironically</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>ass</t>
+  </si>
+  <si>
+    <t>least</t>
   </si>
   <si>
     <t>shocked</t>
   </si>
   <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>ass</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>late</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>chilling</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>mental</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>mean</t>
   </si>
   <si>
     <t>black</t>
   </si>
   <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
-    <t>less</t>
+    <t>watched</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>biggest</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>brilliant</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>glad</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>liked</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>increasing</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>phenomena</t>
-  </si>
-  <si>
-    <t>keen</t>
-  </si>
-  <si>
-    <t>outstanding</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
-    <t>yep</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>timely</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>intriguing</t>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <t>agile</t>
-  </si>
-  <si>
-    <t>mack</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>hugely</t>
+    <t>sharing</t>
   </si>
   <si>
     <t>huge</t>
   </si>
   <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>powerful</t>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>fascinating</t>
   </si>
   <si>
-    <t>alive</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>impressed</t>
-  </si>
-  <si>
-    <t>specially</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>major</t>
-  </si>
-  <si>
-    <t>promote</t>
-  </si>
-  <si>
-    <t>necessary</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>bye</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>br</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>ways</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>lots</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>fun</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>incredibly</t>
+  </si>
+  <si>
+    <t>dil</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>wanna</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>live</t>
   </si>
   <si>
     <t>essential</t>
   </si>
   <si>
-    <t>video</t>
-  </si>
-  <si>
-    <t>quick</t>
+    <t>business</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>since</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>2020</t>
   </si>
   <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>awareness</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>thoughts</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>civil</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>opt</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
   <si>
     <t>always</t>
   </si>
   <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>quite</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>facts</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>future</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>since</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>explains</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>posting</t>
+  </si>
+  <si>
+    <t>faster</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>recommended</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>opener</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>society</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>needs</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
     <t>f</t>
   </si>
   <si>
-    <t>irony</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>ironic</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>pro</t>
-  </si>
-  <si>
-    <t>society</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
-    <t>faster</t>
-  </si>
-  <si>
     <t>technology</t>
   </si>
   <si>
-    <t>need</t>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>tech</t>
   </si>
   <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>dilemma</t>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>’</t>
   </si>
   <si>
     <t>netflix</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -1061,7 +896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q150"/>
+  <dimension ref="A1:Q116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1069,10 +904,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1151,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1183,10 +1018,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1201,16 +1036,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1230,13 +1065,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1248,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1272,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1280,37 +1115,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C6">
+        <v>63</v>
+      </c>
+      <c r="D6">
+        <v>63</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1322,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1330,49 +1165,49 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
+        <v>96</v>
+      </c>
+      <c r="D7">
+        <v>96</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="L7">
+        <v>9</v>
+      </c>
+      <c r="M7">
+        <v>9</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>2</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1380,13 +1215,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1398,31 +1233,31 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>2</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1430,13 +1265,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1448,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1472,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1480,13 +1315,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1498,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>2</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1530,13 +1365,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.9666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1548,19 +1383,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K11">
-        <v>0.9444444444444444</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1572,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1580,13 +1415,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.9393939393939394</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1598,19 +1433,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="K12">
-        <v>0.9090909090909091</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1622,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1630,13 +1465,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.9230769230769231</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1648,19 +1483,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="K13">
-        <v>0.8666666666666667</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1672,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1680,13 +1515,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.9090909090909091</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1698,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="K14">
-        <v>0.84</v>
+        <v>0.5</v>
       </c>
       <c r="L14">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="M14">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1722,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1730,13 +1565,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.875</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1748,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="K15">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="L15">
         <v>4</v>
@@ -1772,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1780,13 +1615,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8421052631578947</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1801,10 +1636,10 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="L16">
         <v>3</v>
@@ -1822,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1830,13 +1665,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1848,19 +1683,19 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>14</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17">
+        <v>0.5</v>
+      </c>
+      <c r="L17">
         <v>3</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K17">
-        <v>0.7</v>
-      </c>
-      <c r="L17">
-        <v>7</v>
-      </c>
       <c r="M17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1880,49 +1715,49 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8</v>
+        <v>0.625</v>
       </c>
       <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>4</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L18">
-        <v>4</v>
-      </c>
-      <c r="M18">
-        <v>4</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1930,13 +1765,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.75</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1948,19 +1783,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1972,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1980,7 +1815,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -1998,19 +1833,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -2022,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2030,13 +1865,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6666666666666666</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2048,19 +1883,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K21">
-        <v>0.5714285714285714</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -2072,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2080,38 +1915,38 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L22">
         <v>2</v>
       </c>
-      <c r="D22">
+      <c r="M22">
         <v>2</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K22">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="L22">
-        <v>34</v>
-      </c>
-      <c r="M22">
-        <v>34</v>
-      </c>
       <c r="N22">
         <v>1</v>
       </c>
@@ -2122,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2130,38 +1965,38 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6666666666666666</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>14</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L23">
         <v>2</v>
       </c>
-      <c r="D23">
+      <c r="M23">
         <v>2</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K23">
-        <v>0.5517241379310345</v>
-      </c>
-      <c r="L23">
-        <v>16</v>
-      </c>
-      <c r="M23">
-        <v>16</v>
-      </c>
       <c r="N23">
         <v>1</v>
       </c>
@@ -2172,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2180,38 +2015,38 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6666666666666666</v>
+        <v>0.45</v>
       </c>
       <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>11</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L24">
         <v>2</v>
       </c>
-      <c r="D24">
+      <c r="M24">
         <v>2</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K24">
-        <v>0.5066666666666667</v>
-      </c>
-      <c r="L24">
-        <v>38</v>
-      </c>
-      <c r="M24">
-        <v>38</v>
-      </c>
       <c r="N24">
         <v>1</v>
       </c>
@@ -2222,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2230,13 +2065,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6666666666666666</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2248,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2272,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2280,13 +2115,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6666666666666666</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2298,19 +2133,19 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <v>27</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="L26">
         <v>3</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K26">
-        <v>0.5</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
       <c r="M26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2322,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2330,13 +2165,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6470588235294118</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2348,19 +2183,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2372,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2380,13 +2215,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.625</v>
+        <v>0.4</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2398,13 +2233,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L28">
         <v>3</v>
@@ -2422,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2430,13 +2265,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6153846153846154</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2448,19 +2283,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2472,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2480,13 +2315,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2498,19 +2333,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2522,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2530,13 +2365,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.575</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2548,19 +2383,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.1875</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2572,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2580,13 +2415,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5714285714285714</v>
+        <v>0.375</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2598,13 +2433,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -2622,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2630,13 +2465,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.55</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2648,13 +2483,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -2672,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2680,13 +2515,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5217391304347826</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C34">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2701,10 +2536,10 @@
         <v>11</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -2722,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2730,13 +2565,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2748,19 +2583,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="K35">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2772,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2780,49 +2615,49 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>20</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K36">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>6</v>
-      </c>
-      <c r="D36">
-        <v>6</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>6</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K36">
-        <v>0.375</v>
-      </c>
-      <c r="L36">
-        <v>3</v>
-      </c>
-      <c r="M36">
-        <v>3</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2830,13 +2665,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2848,13 +2683,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="K37">
-        <v>0.3333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -2872,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2880,13 +2715,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2898,19 +2733,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K38">
-        <v>0.3333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L38">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M38">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2922,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2930,13 +2765,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2948,13 +2783,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="K39">
-        <v>0.3333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -2972,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2980,13 +2815,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2998,13 +2833,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="K40">
-        <v>0.3333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -3022,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3030,7 +2865,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3048,19 +2883,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K41">
-        <v>0.3333333333333333</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -3072,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3080,13 +2915,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4855072463768116</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C42">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3098,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="K42">
-        <v>0.3333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -3122,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3130,37 +2965,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4545454545454545</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>5</v>
       </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>6</v>
-      </c>
       <c r="J43" s="1" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="K43">
-        <v>0.3333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -3172,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3180,38 +3015,38 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4166666666666667</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>16</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K44">
+        <v>0.1219512195121951</v>
+      </c>
+      <c r="L44">
         <v>5</v>
       </c>
-      <c r="D44">
+      <c r="M44">
         <v>5</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>7</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K44">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
       <c r="N44">
         <v>1</v>
       </c>
@@ -3222,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3230,13 +3065,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4166666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3248,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="K45">
-        <v>0.3333333333333333</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3272,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3280,13 +3115,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4117647058823529</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3298,13 +3133,13 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="K46">
-        <v>0.3333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -3322,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3330,13 +3165,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4042553191489361</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C47">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3348,19 +3183,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="K47">
-        <v>0.2857142857142857</v>
+        <v>0.1</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3372,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3380,13 +3215,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3928571428571428</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="C48">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D48">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3398,19 +3233,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="K48">
-        <v>0.2857142857142857</v>
+        <v>0.1</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3422,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3430,13 +3265,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3846153846153846</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3448,19 +3283,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="K49">
-        <v>0.2777777777777778</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="L49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3472,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3480,13 +3315,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.375</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3498,31 +3333,31 @@
         <v>0</v>
       </c>
       <c r="H50">
+        <v>18</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K50">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
         <v>10</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K50">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="L50">
-        <v>5</v>
-      </c>
-      <c r="M50">
-        <v>5</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3530,13 +3365,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3714285714285714</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C51">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3548,19 +3383,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K51">
-        <v>0.25</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3572,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3580,7 +3415,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3333333333333333</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3598,19 +3433,19 @@
         <v>0</v>
       </c>
       <c r="H52">
+        <v>21</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K52">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="L52">
         <v>2</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K52">
-        <v>0.25</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
       <c r="M52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3622,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3630,7 +3465,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.3333333333333333</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3648,19 +3483,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="K53">
-        <v>0.25</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3672,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3680,7 +3515,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.3333333333333333</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3698,13 +3533,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="K54">
-        <v>0.25</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -3722,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3730,31 +3565,31 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.25</v>
+        <v>0.003484320557491289</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>21</v>
+        <v>286</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="K55">
-        <v>0.25</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -3772,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3780,31 +3615,31 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.25</v>
+        <v>0.003367003367003367</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>296</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="K56">
-        <v>0.25</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -3822,45 +3657,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57">
-        <v>0.25</v>
-      </c>
-      <c r="C57">
-        <v>6</v>
-      </c>
-      <c r="D57">
-        <v>6</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>18</v>
-      </c>
       <c r="J57" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="K57">
-        <v>0.2307692307692308</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3872,39 +3683,15 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58">
-        <v>0.25</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>3</v>
-      </c>
       <c r="J58" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="K58">
-        <v>0.2</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -3922,96 +3709,48 @@
         <v>0</v>
       </c>
       <c r="Q58">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="J59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K59">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="J60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K60">
+        <v>0.06779661016949153</v>
+      </c>
+      <c r="L60">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59">
-        <v>0.25</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>3</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K59">
-        <v>0.2</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
+      <c r="M60">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="C60">
-        <v>9</v>
-      </c>
-      <c r="D60">
-        <v>9</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>30</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K60">
-        <v>0.2</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
       <c r="N60">
         <v>1</v>
       </c>
@@ -4022,339 +3761,171 @@
         <v>0</v>
       </c>
       <c r="Q60">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="J61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K61">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="J62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K62">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="J63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K63">
+        <v>0.06375227686703097</v>
+      </c>
+      <c r="L63">
+        <v>70</v>
+      </c>
+      <c r="M63">
+        <v>70</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="J64" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K64">
+        <v>0.0625</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K65">
+        <v>0.0625</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K66">
+        <v>0.05633802816901409</v>
+      </c>
+      <c r="L66">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="C61">
-        <v>6</v>
-      </c>
-      <c r="D61">
-        <v>6</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>20</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K61">
-        <v>0.2</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61">
+      <c r="M66">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="A62" s="1" t="s">
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
         <v>67</v>
       </c>
-      <c r="B62">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="C62">
-        <v>3</v>
-      </c>
-      <c r="D62">
-        <v>3</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>11</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K62">
-        <v>0.2</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="A63" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>9</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K63">
-        <v>0.2</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="M63">
-        <v>1</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="A64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>10</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K64">
-        <v>0.2</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
-      <c r="A65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>5</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K65">
-        <v>0.2</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>1</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
-      <c r="A66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>5</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K66">
-        <v>0.2</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
-      <c r="A67" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="K67">
-        <v>0.1875</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L67">
         <v>3</v>
@@ -4372,196 +3943,100 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
-      <c r="A68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68">
-        <v>0.1071428571428571</v>
-      </c>
-      <c r="C68">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K68">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K69">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="L69">
+        <v>5</v>
+      </c>
+      <c r="M69">
+        <v>5</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K70">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K71">
+        <v>0.04918032786885246</v>
+      </c>
+      <c r="L71">
         <v>3</v>
       </c>
-      <c r="D68">
+      <c r="M71">
         <v>3</v>
       </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>25</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K68">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="L68">
-        <v>1</v>
-      </c>
-      <c r="M68">
-        <v>1</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
-      <c r="A69" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="C69">
-        <v>2</v>
-      </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>17</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K69">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="L69">
-        <v>2</v>
-      </c>
-      <c r="M69">
-        <v>2</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
-      <c r="A70" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70">
-        <v>0.1025641025641026</v>
-      </c>
-      <c r="C70">
-        <v>8</v>
-      </c>
-      <c r="D70">
-        <v>8</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>70</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K70">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70">
-        <v>1</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="A71" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71">
-        <v>0.09523809523809523</v>
-      </c>
-      <c r="C71">
-        <v>2</v>
-      </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>19</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K71">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71">
-        <v>1</v>
-      </c>
       <c r="N71">
         <v>1</v>
       </c>
@@ -4572,45 +4047,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="A72" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72">
-        <v>0.08</v>
-      </c>
-      <c r="C72">
-        <v>2</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>23</v>
-      </c>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="K72">
-        <v>0.1578947368421053</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="L72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -4622,45 +4073,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="A73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>14</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="K73">
-        <v>0.1538461538461539</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="L73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -4672,39 +4099,15 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
-      <c r="A74" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="K74">
-        <v>0.1538461538461539</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="L74">
         <v>2</v>
@@ -4722,39 +4125,15 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>18</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="K75">
-        <v>0.1428571428571428</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -4772,149 +4151,125 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
-      <c r="A76" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76">
-        <v>0.003355704697986577</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K76">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K77">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K78">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K79">
+        <v>0.03846153846153846</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K80">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="L80">
         <v>2</v>
       </c>
-      <c r="E76">
-        <v>0.5</v>
-      </c>
-      <c r="F76">
-        <v>0.5</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>297</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K76">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="M76">
-        <v>1</v>
-      </c>
-      <c r="N76">
-        <v>1</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
-      <c r="J77" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K77">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
-      <c r="J78" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K78">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78">
-        <v>1</v>
-      </c>
-      <c r="N78">
-        <v>1</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="J79" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K79">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="L79">
-        <v>1</v>
-      </c>
-      <c r="M79">
-        <v>1</v>
-      </c>
-      <c r="N79">
-        <v>1</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="P79" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="J80" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K80">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="L80">
-        <v>1</v>
-      </c>
       <c r="M80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -4926,21 +4281,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K81">
-        <v>0.1428571428571428</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="L81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -4952,21 +4307,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="K82">
-        <v>0.1388888888888889</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="L82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -4978,21 +4333,21 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="K83">
-        <v>0.1333333333333333</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="L83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -5004,21 +4359,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="K84">
-        <v>0.1304347826086956</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="L84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -5030,15 +4385,15 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="K85">
-        <v>0.125</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="L85">
         <v>2</v>
@@ -5056,21 +4411,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="K86">
-        <v>0.1212121212121212</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -5082,21 +4437,21 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="K87">
-        <v>0.1111111111111111</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -5108,15 +4463,15 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="K88">
-        <v>0.1111111111111111</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -5134,15 +4489,15 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="K89">
-        <v>0.1111111111111111</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="L89">
         <v>1</v>
@@ -5160,15 +4515,15 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="K90">
-        <v>0.1111111111111111</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="L90">
         <v>1</v>
@@ -5186,15 +4541,15 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="K91">
-        <v>0.1111111111111111</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="L91">
         <v>1</v>
@@ -5212,21 +4567,21 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="K92">
-        <v>0.1</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="L92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -5238,21 +4593,21 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>9</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="K93">
-        <v>0.09523809523809523</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="L93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -5264,21 +4619,21 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="K94">
-        <v>0.09259259259259259</v>
+        <v>0.02120141342756184</v>
       </c>
       <c r="L94">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M94">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -5290,15 +4645,15 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>49</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="K95">
-        <v>0.09090909090909091</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="L95">
         <v>1</v>
@@ -5316,15 +4671,15 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="K96">
-        <v>0.09090909090909091</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -5342,15 +4697,15 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="K97">
-        <v>0.09090909090909091</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="L97">
         <v>1</v>
@@ -5368,21 +4723,21 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="K98">
-        <v>0.0847457627118644</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="L98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -5394,15 +4749,15 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="K99">
-        <v>0.08333333333333333</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -5420,15 +4775,15 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="K100">
-        <v>0.08333333333333333</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="L100">
         <v>1</v>
@@ -5446,15 +4801,15 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K101">
-        <v>0.08196721311475409</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="L101">
         <v>5</v>
@@ -5472,21 +4827,21 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>56</v>
+        <v>310</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="K102">
-        <v>0.07317073170731707</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="L102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -5498,15 +4853,15 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="K103">
-        <v>0.07142857142857142</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="L103">
         <v>1</v>
@@ -5524,21 +4879,21 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>13</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="K104">
-        <v>0.07142857142857142</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="L104">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M104">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -5550,21 +4905,21 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>13</v>
+        <v>608</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="K105">
-        <v>0.0625</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="L105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -5576,15 +4931,15 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="K106">
-        <v>0.0625</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="L106">
         <v>1</v>
@@ -5602,21 +4957,21 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>15</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="K107">
-        <v>0.05882352941176471</v>
+        <v>0.01054216867469879</v>
       </c>
       <c r="L107">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M107">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -5628,21 +4983,21 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>16</v>
+        <v>657</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="K108">
-        <v>0.05633802816901409</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M108">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -5654,15 +5009,15 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>67</v>
+        <v>95</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="K109">
-        <v>0.05555555555555555</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="L109">
         <v>1</v>
@@ -5680,21 +5035,21 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>17</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="K110">
-        <v>0.05373406193078324</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="L110">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="M110">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -5706,15 +5061,15 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>1039</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="K111">
-        <v>0.05263157894736842</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="L111">
         <v>1</v>
@@ -5732,47 +5087,47 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>191</v>
+        <v>61</v>
       </c>
       <c r="K112">
-        <v>0.05263157894736842</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="L112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N112">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="O112">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="P112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q112">
-        <v>18</v>
+        <v>296</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="K113">
-        <v>0.04761904761904762</v>
+        <v>0.00576036866359447</v>
       </c>
       <c r="L113">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M113">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -5784,21 +5139,21 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>20</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="K114">
-        <v>0.04761904761904762</v>
+        <v>0.003841229193341869</v>
       </c>
       <c r="L114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -5810,21 +5165,21 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>20</v>
+        <v>778</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="K115">
-        <v>0.04615384615384616</v>
+        <v>0.003703703703703704</v>
       </c>
       <c r="L115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -5836,917 +5191,33 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>62</v>
+        <v>538</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>195</v>
+        <v>60</v>
       </c>
       <c r="K116">
-        <v>0.04347826086956522</v>
+        <v>0.003484320557491289</v>
       </c>
       <c r="L116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M116">
         <v>2</v>
       </c>
       <c r="N116">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O116">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q116">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="117" spans="10:17">
-      <c r="J117" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="K117">
-        <v>0.04081632653061224</v>
-      </c>
-      <c r="L117">
-        <v>2</v>
-      </c>
-      <c r="M117">
-        <v>2</v>
-      </c>
-      <c r="N117">
-        <v>1</v>
-      </c>
-      <c r="O117">
-        <v>0</v>
-      </c>
-      <c r="P117" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q117">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="118" spans="10:17">
-      <c r="J118" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="K118">
-        <v>0.04</v>
-      </c>
-      <c r="L118">
-        <v>2</v>
-      </c>
-      <c r="M118">
-        <v>2</v>
-      </c>
-      <c r="N118">
-        <v>1</v>
-      </c>
-      <c r="O118">
-        <v>0</v>
-      </c>
-      <c r="P118" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q118">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="119" spans="10:17">
-      <c r="J119" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K119">
-        <v>0.03703703703703703</v>
-      </c>
-      <c r="L119">
-        <v>2</v>
-      </c>
-      <c r="M119">
-        <v>2</v>
-      </c>
-      <c r="N119">
-        <v>1</v>
-      </c>
-      <c r="O119">
-        <v>0</v>
-      </c>
-      <c r="P119" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q119">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="120" spans="10:17">
-      <c r="J120" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="K120">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="L120">
-        <v>1</v>
-      </c>
-      <c r="M120">
-        <v>1</v>
-      </c>
-      <c r="N120">
-        <v>1</v>
-      </c>
-      <c r="O120">
-        <v>0</v>
-      </c>
-      <c r="P120" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q120">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="121" spans="10:17">
-      <c r="J121" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K121">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="L121">
-        <v>1</v>
-      </c>
-      <c r="M121">
-        <v>1</v>
-      </c>
-      <c r="N121">
-        <v>1</v>
-      </c>
-      <c r="O121">
-        <v>0</v>
-      </c>
-      <c r="P121" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q121">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="122" spans="10:17">
-      <c r="J122" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K122">
-        <v>0.03125</v>
-      </c>
-      <c r="L122">
-        <v>1</v>
-      </c>
-      <c r="M122">
-        <v>1</v>
-      </c>
-      <c r="N122">
-        <v>1</v>
-      </c>
-      <c r="O122">
-        <v>0</v>
-      </c>
-      <c r="P122" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q122">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="123" spans="10:17">
-      <c r="J123" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K123">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="L123">
-        <v>1</v>
-      </c>
-      <c r="M123">
-        <v>1</v>
-      </c>
-      <c r="N123">
-        <v>1</v>
-      </c>
-      <c r="O123">
-        <v>0</v>
-      </c>
-      <c r="P123" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q123">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="124" spans="10:17">
-      <c r="J124" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K124">
-        <v>0.02941176470588235</v>
-      </c>
-      <c r="L124">
-        <v>1</v>
-      </c>
-      <c r="M124">
-        <v>1</v>
-      </c>
-      <c r="N124">
-        <v>1</v>
-      </c>
-      <c r="O124">
-        <v>0</v>
-      </c>
-      <c r="P124" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q124">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="125" spans="10:17">
-      <c r="J125" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K125">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="L125">
-        <v>1</v>
-      </c>
-      <c r="M125">
-        <v>1</v>
-      </c>
-      <c r="N125">
-        <v>1</v>
-      </c>
-      <c r="O125">
-        <v>0</v>
-      </c>
-      <c r="P125" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q125">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="126" spans="10:17">
-      <c r="J126" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="K126">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="L126">
-        <v>1</v>
-      </c>
-      <c r="M126">
-        <v>1</v>
-      </c>
-      <c r="N126">
-        <v>1</v>
-      </c>
-      <c r="O126">
-        <v>0</v>
-      </c>
-      <c r="P126" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q126">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="127" spans="10:17">
-      <c r="J127" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K127">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="L127">
-        <v>1</v>
-      </c>
-      <c r="M127">
-        <v>1</v>
-      </c>
-      <c r="N127">
-        <v>1</v>
-      </c>
-      <c r="O127">
-        <v>0</v>
-      </c>
-      <c r="P127" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q127">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="128" spans="10:17">
-      <c r="J128" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K128">
-        <v>0.025</v>
-      </c>
-      <c r="L128">
-        <v>1</v>
-      </c>
-      <c r="M128">
-        <v>1</v>
-      </c>
-      <c r="N128">
-        <v>1</v>
-      </c>
-      <c r="O128">
-        <v>0</v>
-      </c>
-      <c r="P128" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q128">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="129" spans="10:17">
-      <c r="J129" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K129">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="L129">
-        <v>1</v>
-      </c>
-      <c r="M129">
-        <v>1</v>
-      </c>
-      <c r="N129">
-        <v>1</v>
-      </c>
-      <c r="O129">
-        <v>0</v>
-      </c>
-      <c r="P129" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q129">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="130" spans="10:17">
-      <c r="J130" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="K130">
-        <v>0.0218978102189781</v>
-      </c>
-      <c r="L130">
-        <v>3</v>
-      </c>
-      <c r="M130">
-        <v>3</v>
-      </c>
-      <c r="N130">
-        <v>1</v>
-      </c>
-      <c r="O130">
-        <v>0</v>
-      </c>
-      <c r="P130" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q130">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="131" spans="10:17">
-      <c r="J131" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K131">
-        <v>0.02173913043478261</v>
-      </c>
-      <c r="L131">
-        <v>1</v>
-      </c>
-      <c r="M131">
-        <v>1</v>
-      </c>
-      <c r="N131">
-        <v>1</v>
-      </c>
-      <c r="O131">
-        <v>0</v>
-      </c>
-      <c r="P131" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q131">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="132" spans="10:17">
-      <c r="J132" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K132">
-        <v>0.02083333333333333</v>
-      </c>
-      <c r="L132">
-        <v>1</v>
-      </c>
-      <c r="M132">
-        <v>1</v>
-      </c>
-      <c r="N132">
-        <v>1</v>
-      </c>
-      <c r="O132">
-        <v>0</v>
-      </c>
-      <c r="P132" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q132">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="133" spans="10:17">
-      <c r="J133" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K133">
-        <v>0.02040816326530612</v>
-      </c>
-      <c r="L133">
-        <v>1</v>
-      </c>
-      <c r="M133">
-        <v>1</v>
-      </c>
-      <c r="N133">
-        <v>1</v>
-      </c>
-      <c r="O133">
-        <v>0</v>
-      </c>
-      <c r="P133" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q133">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="134" spans="10:17">
-      <c r="J134" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K134">
-        <v>0.01923076923076923</v>
-      </c>
-      <c r="L134">
-        <v>1</v>
-      </c>
-      <c r="M134">
-        <v>1</v>
-      </c>
-      <c r="N134">
-        <v>1</v>
-      </c>
-      <c r="O134">
-        <v>0</v>
-      </c>
-      <c r="P134" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q134">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="135" spans="10:17">
-      <c r="J135" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K135">
-        <v>0.01851851851851852</v>
-      </c>
-      <c r="L135">
-        <v>1</v>
-      </c>
-      <c r="M135">
-        <v>1</v>
-      </c>
-      <c r="N135">
-        <v>1</v>
-      </c>
-      <c r="O135">
-        <v>0</v>
-      </c>
-      <c r="P135" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q135">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="136" spans="10:17">
-      <c r="J136" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="K136">
-        <v>0.01694915254237288</v>
-      </c>
-      <c r="L136">
-        <v>1</v>
-      </c>
-      <c r="M136">
-        <v>1</v>
-      </c>
-      <c r="N136">
-        <v>1</v>
-      </c>
-      <c r="O136">
-        <v>0</v>
-      </c>
-      <c r="P136" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q136">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="137" spans="10:17">
-      <c r="J137" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K137">
-        <v>0.01388888888888889</v>
-      </c>
-      <c r="L137">
-        <v>1</v>
-      </c>
-      <c r="M137">
-        <v>1</v>
-      </c>
-      <c r="N137">
-        <v>1</v>
-      </c>
-      <c r="O137">
-        <v>0</v>
-      </c>
-      <c r="P137" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q137">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="138" spans="10:17">
-      <c r="J138" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K138">
-        <v>0.01351351351351351</v>
-      </c>
-      <c r="L138">
-        <v>1</v>
-      </c>
-      <c r="M138">
-        <v>1</v>
-      </c>
-      <c r="N138">
-        <v>1</v>
-      </c>
-      <c r="O138">
-        <v>0</v>
-      </c>
-      <c r="P138" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q138">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="139" spans="10:17">
-      <c r="J139" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="K139">
-        <v>0.0131578947368421</v>
-      </c>
-      <c r="L139">
-        <v>1</v>
-      </c>
-      <c r="M139">
-        <v>1</v>
-      </c>
-      <c r="N139">
-        <v>1</v>
-      </c>
-      <c r="O139">
-        <v>0</v>
-      </c>
-      <c r="P139" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q139">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="140" spans="10:17">
-      <c r="J140" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K140">
-        <v>0.0126984126984127</v>
-      </c>
-      <c r="L140">
-        <v>4</v>
-      </c>
-      <c r="M140">
-        <v>4</v>
-      </c>
-      <c r="N140">
-        <v>1</v>
-      </c>
-      <c r="O140">
-        <v>0</v>
-      </c>
-      <c r="P140" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q140">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="141" spans="10:17">
-      <c r="J141" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="K141">
-        <v>0.01111111111111111</v>
-      </c>
-      <c r="L141">
-        <v>6</v>
-      </c>
-      <c r="M141">
-        <v>6</v>
-      </c>
-      <c r="N141">
-        <v>1</v>
-      </c>
-      <c r="O141">
-        <v>0</v>
-      </c>
-      <c r="P141" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q141">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="142" spans="10:17">
-      <c r="J142" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="K142">
-        <v>0.01111111111111111</v>
-      </c>
-      <c r="L142">
-        <v>1</v>
-      </c>
-      <c r="M142">
-        <v>1</v>
-      </c>
-      <c r="N142">
-        <v>1</v>
-      </c>
-      <c r="O142">
-        <v>0</v>
-      </c>
-      <c r="P142" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q142">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="143" spans="10:17">
-      <c r="J143" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K143">
-        <v>0.01052631578947368</v>
-      </c>
-      <c r="L143">
-        <v>1</v>
-      </c>
-      <c r="M143">
-        <v>1</v>
-      </c>
-      <c r="N143">
-        <v>1</v>
-      </c>
-      <c r="O143">
-        <v>0</v>
-      </c>
-      <c r="P143" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q143">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="144" spans="10:17">
-      <c r="J144" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K144">
-        <v>0.009259259259259259</v>
-      </c>
-      <c r="L144">
-        <v>1</v>
-      </c>
-      <c r="M144">
-        <v>1</v>
-      </c>
-      <c r="N144">
-        <v>1</v>
-      </c>
-      <c r="O144">
-        <v>0</v>
-      </c>
-      <c r="P144" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q144">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="145" spans="10:17">
-      <c r="J145" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K145">
-        <v>0.009036144578313253</v>
-      </c>
-      <c r="L145">
-        <v>6</v>
-      </c>
-      <c r="M145">
-        <v>6</v>
-      </c>
-      <c r="N145">
-        <v>1</v>
-      </c>
-      <c r="O145">
-        <v>0</v>
-      </c>
-      <c r="P145" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q145">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="146" spans="10:17">
-      <c r="J146" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="K146">
-        <v>0.007067137809187279</v>
-      </c>
-      <c r="L146">
-        <v>2</v>
-      </c>
-      <c r="M146">
-        <v>2</v>
-      </c>
-      <c r="N146">
-        <v>1</v>
-      </c>
-      <c r="O146">
-        <v>0</v>
-      </c>
-      <c r="P146" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q146">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="147" spans="10:17">
-      <c r="J147" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="K147">
-        <v>0.006336405529953917</v>
-      </c>
-      <c r="L147">
-        <v>11</v>
-      </c>
-      <c r="M147">
-        <v>11</v>
-      </c>
-      <c r="N147">
-        <v>1</v>
-      </c>
-      <c r="O147">
-        <v>0</v>
-      </c>
-      <c r="P147" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q147">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="148" spans="10:17">
-      <c r="J148" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="K148">
-        <v>0.00487012987012987</v>
-      </c>
-      <c r="L148">
-        <v>3</v>
-      </c>
-      <c r="M148">
-        <v>3</v>
-      </c>
-      <c r="N148">
-        <v>1</v>
-      </c>
-      <c r="O148">
-        <v>0</v>
-      </c>
-      <c r="P148" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q148">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="149" spans="10:17">
-      <c r="J149" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="K149">
-        <v>0.003841229193341869</v>
-      </c>
-      <c r="L149">
-        <v>3</v>
-      </c>
-      <c r="M149">
-        <v>3</v>
-      </c>
-      <c r="N149">
-        <v>1</v>
-      </c>
-      <c r="O149">
-        <v>0</v>
-      </c>
-      <c r="P149" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q149">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="150" spans="10:17">
-      <c r="J150" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K150">
-        <v>0.003355704697986577</v>
-      </c>
-      <c r="L150">
-        <v>1</v>
-      </c>
-      <c r="M150">
-        <v>2</v>
-      </c>
-      <c r="N150">
-        <v>0.5</v>
-      </c>
-      <c r="O150">
-        <v>0.5</v>
-      </c>
-      <c r="P150" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q150">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
